--- a/2022/SAMSUNG/JULY/30.07.2022/SAMSUNG Bank Statement July-2022.xlsx
+++ b/2022/SAMSUNG/JULY/30.07.2022/SAMSUNG Bank Statement July-2022.xlsx
@@ -3591,6 +3591,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3635,66 +3695,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9858,11 +9858,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9877,6 +9872,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33798,8 +33798,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33825,13 +33825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="452" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="434"/>
+      <c r="B1" s="453"/>
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
+      <c r="E1" s="454"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -33840,13 +33840,13 @@
       <c r="K1" s="447"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="441" t="s">
+      <c r="A2" s="461" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="443"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="463"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33867,13 +33867,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="455" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="436"/>
-      <c r="C3" s="436"/>
-      <c r="D3" s="436"/>
-      <c r="E3" s="437"/>
+      <c r="B3" s="456"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="457"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33900,13 +33900,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="444" t="s">
+      <c r="A4" s="464" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="446"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="466"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34403,11 +34403,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="285"/>
-      <c r="I17" s="448" t="s">
+      <c r="I17" s="432" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="448"/>
-      <c r="K17" s="448"/>
+      <c r="J17" s="432"/>
+      <c r="K17" s="432"/>
       <c r="L17" s="322">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34430,11 +34430,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="285"/>
-      <c r="I18" s="449" t="s">
+      <c r="I18" s="448" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="449"/>
-      <c r="K18" s="449"/>
+      <c r="J18" s="448"/>
+      <c r="K18" s="448"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34446,21 +34446,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="438" t="s">
+      <c r="A19" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="439"/>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
-      <c r="E19" s="440"/>
+      <c r="B19" s="459"/>
+      <c r="C19" s="459"/>
+      <c r="D19" s="459"/>
+      <c r="E19" s="460"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="458" t="s">
+      <c r="I19" s="438" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="458"/>
-      <c r="K19" s="458"/>
+      <c r="J19" s="438"/>
+      <c r="K19" s="438"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34488,11 +34488,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="450" t="s">
+      <c r="I20" s="437" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="450"/>
-      <c r="K20" s="450"/>
+      <c r="J20" s="437"/>
+      <c r="K20" s="437"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34519,11 +34519,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="451" t="s">
+      <c r="I21" s="449" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="452"/>
-      <c r="K21" s="453"/>
+      <c r="J21" s="450"/>
+      <c r="K21" s="451"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34548,11 +34548,11 @@
       <c r="E22" s="245">
         <v>342840</v>
       </c>
-      <c r="I22" s="458" t="s">
+      <c r="I22" s="438" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="458"/>
-      <c r="K22" s="458"/>
+      <c r="J22" s="438"/>
+      <c r="K22" s="438"/>
       <c r="L22" s="363">
         <v>20000</v>
       </c>
@@ -34577,11 +34577,11 @@
       <c r="E23" s="245">
         <v>55170</v>
       </c>
-      <c r="I23" s="454" t="s">
+      <c r="I23" s="433" t="s">
         <v>221</v>
       </c>
-      <c r="J23" s="455"/>
-      <c r="K23" s="456"/>
+      <c r="J23" s="434"/>
+      <c r="K23" s="435"/>
       <c r="L23" s="363">
         <v>40000</v>
       </c>
@@ -34606,9 +34606,9 @@
       <c r="E24" s="311">
         <v>23000</v>
       </c>
-      <c r="I24" s="459"/>
-      <c r="J24" s="460"/>
-      <c r="K24" s="461"/>
+      <c r="I24" s="439"/>
+      <c r="J24" s="440"/>
+      <c r="K24" s="441"/>
       <c r="L24" s="343"/>
       <c r="M24" s="343"/>
       <c r="N24" s="7"/>
@@ -34631,11 +34631,11 @@
       <c r="E25" s="245">
         <v>15920</v>
       </c>
-      <c r="I25" s="448" t="s">
+      <c r="I25" s="432" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="448"/>
-      <c r="K25" s="448"/>
+      <c r="J25" s="432"/>
+      <c r="K25" s="432"/>
       <c r="L25" s="322">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>128150</v>
@@ -34701,13 +34701,13 @@
       <c r="E28" s="252">
         <v>300000</v>
       </c>
-      <c r="I28" s="462" t="s">
+      <c r="I28" s="442" t="s">
         <v>260</v>
       </c>
-      <c r="J28" s="463"/>
-      <c r="K28" s="463"/>
-      <c r="L28" s="463"/>
-      <c r="M28" s="464"/>
+      <c r="J28" s="443"/>
+      <c r="K28" s="443"/>
+      <c r="L28" s="443"/>
+      <c r="M28" s="444"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -34728,11 +34728,11 @@
       <c r="E29" s="252">
         <v>200000</v>
       </c>
-      <c r="I29" s="465" t="s">
+      <c r="I29" s="445" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="465"/>
-      <c r="K29" s="466"/>
+      <c r="J29" s="445"/>
+      <c r="K29" s="446"/>
       <c r="L29" s="391">
         <v>213170</v>
       </c>
@@ -34757,11 +34757,11 @@
       <c r="E30" s="321">
         <v>40000</v>
       </c>
-      <c r="I30" s="457" t="s">
+      <c r="I30" s="436" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="450"/>
-      <c r="K30" s="450"/>
+      <c r="J30" s="437"/>
+      <c r="K30" s="437"/>
       <c r="L30" s="387">
         <v>79500</v>
       </c>
@@ -34779,11 +34779,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="457" t="s">
+      <c r="I31" s="436" t="s">
         <v>167</v>
       </c>
-      <c r="J31" s="450"/>
-      <c r="K31" s="450"/>
+      <c r="J31" s="437"/>
+      <c r="K31" s="437"/>
       <c r="L31" s="387">
         <v>47500</v>
       </c>
@@ -34797,11 +34797,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I32" s="457" t="s">
+      <c r="I32" s="436" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="450"/>
-      <c r="K32" s="450"/>
+      <c r="J32" s="437"/>
+      <c r="K32" s="437"/>
       <c r="L32" s="387">
         <v>50000</v>
       </c>
@@ -34816,9 +34816,9 @@
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="E33" s="14"/>
-      <c r="I33" s="454"/>
-      <c r="J33" s="455"/>
-      <c r="K33" s="456"/>
+      <c r="I33" s="433"/>
+      <c r="J33" s="434"/>
+      <c r="K33" s="435"/>
       <c r="L33" s="387"/>
       <c r="M33" s="387"/>
       <c r="N33" s="7"/>
@@ -34828,11 +34828,11 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="I34" s="448" t="s">
+      <c r="I34" s="432" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="448"/>
-      <c r="K34" s="448"/>
+      <c r="J34" s="432"/>
+      <c r="K34" s="432"/>
       <c r="L34" s="385">
         <f>L29-L30-L31-L32-L33</f>
         <v>36170</v>
@@ -37538,6 +37538,16 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I25:K25"/>
@@ -37550,16 +37560,6 @@
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
